--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225200.1934851556</v>
+        <v>-227664.2569288611</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>219.7450729213165</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>42.76773080618901</v>
       </c>
       <c r="X2" t="n">
-        <v>134.11494072175</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>100.0274859592274</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -865,25 +865,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>131.5106022253276</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>336.848021616354</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>282.2717811533792</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>97.16210696178935</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>54.0125315406068</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>93.52676208877594</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>288.668934107959</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>77.49903169749544</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1339,25 +1339,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>19.91275951257872</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>163.7145813714301</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229358</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,10 +1664,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>142.4285301601181</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>147.7027769252553</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>42.54416032354628</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>176.1811323375803</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986214</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673009</v>
       </c>
       <c r="V22" t="n">
-        <v>142.1343012721705</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>53.08838020946283</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>249.7682289193606</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060472</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>85.71023095289493</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>38.61213096654814</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>26.13627195705873</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>178.5134655978075</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>41.02686156550217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1755.883656639618</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>1386.921139699206</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1164.956419576664</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>779.1681669784198</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2381.544313363695</v>
       </c>
       <c r="X2" t="n">
-        <v>2142.48349670374</v>
+        <v>2008.078555102614</v>
       </c>
       <c r="Y2" t="n">
-        <v>2142.48349670374</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>877.4981753370386</v>
+        <v>1856.279347499052</v>
       </c>
       <c r="C4" t="n">
-        <v>877.4981753370386</v>
+        <v>1856.279347499052</v>
       </c>
       <c r="D4" t="n">
-        <v>727.3815359247028</v>
+        <v>1856.279347499052</v>
       </c>
       <c r="E4" t="n">
-        <v>579.4684423423097</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="F4" t="n">
-        <v>432.5784948443993</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="G4" t="n">
-        <v>264.8756582191182</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415547</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V4" t="n">
-        <v>1615.697475415547</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W4" t="n">
-        <v>1326.280305378586</v>
+        <v>1989.118339645848</v>
       </c>
       <c r="X4" t="n">
-        <v>1098.290754480569</v>
+        <v>1989.118339645848</v>
       </c>
       <c r="Y4" t="n">
-        <v>877.4981753370386</v>
+        <v>1856.279347499052</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1480.516858765519</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1111.554341825107</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>753.288643218357</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>753.288643218357</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>746.3431424691536</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,16 +4565,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2786.952333616968</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805453</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y5" t="n">
-        <v>1867.116698829641</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>462.6853918125581</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C7" t="n">
-        <v>462.6853918125581</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>312.5687524002224</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>164.6556588178292</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>164.6556588178292</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4726,16 +4726,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783663</v>
+        <v>1369.453478575093</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577776</v>
+        <v>1114.768990369206</v>
       </c>
       <c r="W7" t="n">
-        <v>872.3234075408152</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="X7" t="n">
-        <v>644.3338566427979</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="Y7" t="n">
-        <v>644.3338566427979</v>
+        <v>825.3518203322459</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>1938.906022842682</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.898819086399</v>
+        <v>1569.94350590227</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1569.94350590227</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>1184.155253304026</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>773.1693485144183</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>358.0968983594148</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2325.505862906803</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>678.4618728343356</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C10" t="n">
-        <v>678.4618728343356</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219999</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
         <v>380.4321398396067</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X10" t="n">
-        <v>860.1103376645754</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="Y10" t="n">
-        <v>860.1103376645754</v>
+        <v>1072.569853459643</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L12" t="n">
-        <v>506.2737913123343</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9025067654864</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654864</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830932</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5312,7 +5312,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2236.050177650725</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2016.448712673667</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.506641481895</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.517090583878</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2403.989184263546</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2221.13434991845</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2001.532884941391</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1712.457658285589</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1457.773170079702</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1168.356000042741</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>940.366449144724</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>719.5738700011939</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,13 +5738,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5756,46 +5756,46 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536316</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782948</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038334</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662379</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625419</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727401</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583871</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356195</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2393.338457106056</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2104.263230450254</v>
+        <v>1725.169940187922</v>
       </c>
       <c r="V25" t="n">
-        <v>1849.578742244367</v>
+        <v>1470.485451982035</v>
       </c>
       <c r="W25" t="n">
-        <v>1560.161572207407</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X25" t="n">
-        <v>1332.172021309389</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6236,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101294</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122191</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,10 +6443,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>214.9229991561132</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>214.9229991561132</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>724.7519863413023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2407.960931088798</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2407.960931088798</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2188.359466111739</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1899.284239455937</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1644.59975125005</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1355.182581213089</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1127.193030315072</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>906.400451171542</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6914,40 +6914,40 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6962,10 +6962,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>184.7035232280583</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098242</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819173</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695815</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>516.3896878871884</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>369.499740389278</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>202.303641104158</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924459</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718572</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783594</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640064</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,13 +7184,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,7 +7406,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
@@ -7415,13 +7415,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>302.45403664168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>135.2579373565599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7834,10 +7834,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>84.78346173586735</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>134.9379686993665</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>306.473237911224</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>44.7275289550934</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,16 +22753,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.532239727197776</v>
+        <v>167.2468210986318</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462248</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>38.59775584152646</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>138.8202214113358</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>23.83108638657541</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194322</v>
       </c>
       <c r="V22" t="n">
-        <v>110.0033420516575</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>164.3170701178254</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>139.9994244361422</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>27.76311574357352</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>73.62417772602052</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>99.26785128072171</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028986</v>
+        <v>274720.9666028985</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="E2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="F2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="G2" t="n">
         <v>302679.9748837523</v>
       </c>
-      <c r="G2" t="n">
-        <v>302679.9748837524</v>
-      </c>
       <c r="H2" t="n">
-        <v>302679.9748837525</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="I2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="J2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="K2" t="n">
         <v>302679.9748837523</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="M2" t="n">
         <v>302679.9748837523</v>
@@ -26350,10 +26350,10 @@
         <v>302679.9748837524</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991058</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.84042391992989e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551151</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363194</v>
+        <v>19427.71799363179</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41698.109560622</v>
+        <v>41698.10956062211</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26442,19 +26442,19 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683041</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="P4" t="n">
         <v>20987.72340992391</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1203655.829246709</v>
+        <v>-1203876.960560684</v>
       </c>
       <c r="C6" t="n">
-        <v>107772.824219531</v>
+        <v>107772.8242195313</v>
       </c>
       <c r="D6" t="n">
-        <v>107772.8242195314</v>
+        <v>107772.8242195311</v>
       </c>
       <c r="E6" t="n">
-        <v>-136851.8808943402</v>
+        <v>-136886.6188197761</v>
       </c>
       <c r="F6" t="n">
-        <v>188560.5809130144</v>
+        <v>188525.8429875791</v>
       </c>
       <c r="G6" t="n">
-        <v>188560.5809130148</v>
+        <v>188525.842987579</v>
       </c>
       <c r="H6" t="n">
-        <v>188560.5809130147</v>
+        <v>188525.8429875789</v>
       </c>
       <c r="I6" t="n">
-        <v>188560.5809130147</v>
+        <v>188525.842987579</v>
       </c>
       <c r="J6" t="n">
-        <v>-28970.62148426271</v>
+        <v>-29005.35940969847</v>
       </c>
       <c r="K6" t="n">
-        <v>188560.5809130147</v>
+        <v>188525.842987579</v>
       </c>
       <c r="L6" t="n">
-        <v>188560.5809130147</v>
+        <v>188525.8429875789</v>
       </c>
       <c r="M6" t="n">
-        <v>103505.552977503</v>
+        <v>103470.8150520675</v>
       </c>
       <c r="N6" t="n">
-        <v>188560.5809130148</v>
+        <v>188525.8429875791</v>
       </c>
       <c r="O6" t="n">
-        <v>188560.5809130149</v>
+        <v>188525.8429875791</v>
       </c>
       <c r="P6" t="n">
-        <v>164311.1064416346</v>
+        <v>164311.106441635</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26805,16 +26805,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>297.9503799276132</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>235.6161599567191</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>87.07405112676716</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>74.07370403709945</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>45.4804773167557</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>68.86370129723888</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>232.1993066650061</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>271.7461296822316</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>5.938830279361468</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>102.3329484844419</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>205.7968958764584</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.244302867549568e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>6.41004286687045e-12</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L12" t="n">
-        <v>402.2342772868849</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>508.8976500257889</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>263.7590256391492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>531.8166820790243</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>499.3768644016567</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>301.1823051500296</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043726</v>
@@ -33497,10 +33497,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>247.3820194983578</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>227.8611086463986</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>268.6704608606964</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L12" t="n">
-        <v>263.6798975070108</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>366.7636161037706</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>132.4173135558158</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001044</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>393.2623022991501</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295242</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>368.0351523183234</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>159.0482712280113</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37145,10 +37145,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>120.5443928316911</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>90.01966967203961</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
